--- a/Assets/ExcelDatas/CharacterLevelTable.xlsx
+++ b/Assets/ExcelDatas/CharacterLevelTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\취준\프로젝트 어드밴스\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652232EE-9316-4345-B49A-CF2233C79359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678F47F2-BF1F-4324-B55C-24E9AD0E22ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17400" yWindow="195" windowWidth="20595" windowHeight="11400" xr2:uid="{899C4664-E97E-4760-9478-F19A52BE547B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="16788" windowHeight="11256" xr2:uid="{899C4664-E97E-4760-9478-F19A52BE547B}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterLevelTable" sheetId="1" r:id="rId1"/>
@@ -110,15 +110,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -139,6 +142,7 @@
         <charset val="129"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -154,6 +158,7 @@
         <charset val="129"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -199,11 +204,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}" name="표1" displayName="표1" ref="A3:B8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}" name="표1" displayName="표1" ref="A3:B8" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A3:B8" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5113CFC8-8417-4849-99A8-A05EF5B7B02D}" name="Level" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{58D13A8A-9FE9-46DF-8C43-E847FFD2D29C}" name="ReqExp" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5113CFC8-8417-4849-99A8-A05EF5B7B02D}" name="Level" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{58D13A8A-9FE9-46DF-8C43-E847FFD2D29C}" name="ReqExp" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -509,17 +514,17 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -527,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -535,52 +540,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>5000</v>
+      <c r="B8" s="3">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/CharacterLevelTable.xlsx
+++ b/Assets/ExcelDatas/CharacterLevelTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678F47F2-BF1F-4324-B55C-24E9AD0E22ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E3C37C-D483-4B0A-8DC9-4571B6F9AB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="16788" windowHeight="11256" xr2:uid="{899C4664-E97E-4760-9478-F19A52BE547B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{899C4664-E97E-4760-9478-F19A52BE547B}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterLevelTable" sheetId="1" r:id="rId1"/>
@@ -204,8 +204,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}" name="표1" displayName="표1" ref="A3:B8" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A3:B8" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}" name="표1" displayName="표1" ref="A3:B33" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A3:B33" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5113CFC8-8417-4849-99A8-A05EF5B7B02D}" name="Level" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{58D13A8A-9FE9-46DF-8C43-E847FFD2D29C}" name="ReqExp" dataDxfId="0"/>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE004D0-B1EE-450D-80BE-2D7EA3A77AEB}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
@@ -588,6 +588,206 @@
         <v>500</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3340</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ExcelDatas/CharacterLevelTable.xlsx
+++ b/Assets/ExcelDatas/CharacterLevelTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E3C37C-D483-4B0A-8DC9-4571B6F9AB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59866629-BD53-4079-9CDC-DC78B3062389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{899C4664-E97E-4760-9478-F19A52BE547B}"/>
+    <workbookView xWindow="5745" yWindow="180" windowWidth="20595" windowHeight="13260" xr2:uid="{899C4664-E97E-4760-9478-F19A52BE547B}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterLevelTable" sheetId="1" r:id="rId1"/>
@@ -514,17 +514,17 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -540,7 +540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -548,7 +548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -564,7 +564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -572,7 +572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -580,15 +580,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -596,7 +596,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -604,7 +604,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -612,7 +612,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -620,7 +620,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -628,7 +628,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -636,7 +636,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -644,7 +644,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -652,7 +652,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -660,7 +660,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -668,7 +668,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -676,7 +676,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -684,7 +684,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -692,7 +692,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -700,7 +700,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -708,7 +708,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -716,7 +716,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -724,7 +724,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -732,7 +732,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -740,7 +740,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -748,7 +748,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -756,7 +756,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -764,7 +764,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -772,7 +772,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -780,7 +780,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>30</v>
       </c>
